--- a/My_Fantasy_Data_Dictionary.xlsx
+++ b/My_Fantasy_Data_Dictionary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="128">
   <si>
     <t>Table Summary</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>should have been started [1 = yes, 0= no]</t>
+  </si>
+  <si>
+    <t>regular_season</t>
+  </si>
+  <si>
+    <t>fantasy regular season [1 = yes, 0= no]</t>
   </si>
   <si>
     <t>unique team id</t>
@@ -482,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border/>
     <border>
       <bottom style="double">
@@ -618,6 +624,17 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -758,24 +775,26 @@
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="20" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1322,83 +1341,85 @@
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="22" t="s">
+      <c r="E30" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="24" t="s">
-        <v>8</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>27</v>
+      <c r="C34" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C36" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D36" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E36" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36">
-      <c r="C36" s="32" t="s">
+    <row r="37">
+      <c r="C37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>33</v>
@@ -1406,35 +1427,35 @@
     </row>
     <row r="39">
       <c r="C39" s="30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="30" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" s="30" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>50</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -1445,7 +1466,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -1470,97 +1491,97 @@
         <v>37</v>
       </c>
     </row>
+    <row r="45">
+      <c r="C45" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="46">
-      <c r="A46" s="22" t="s">
+      <c r="C46" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C48" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
-    </row>
-    <row r="47">
-      <c r="C47" s="24" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="26" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C50" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="26" t="s">
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C51" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D51" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E51" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50">
-      <c r="C50" s="32" t="s">
+    <row r="52">
+      <c r="C52" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D52" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="C53" s="30" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>33</v>
@@ -1568,10 +1589,10 @@
     </row>
     <row r="55">
       <c r="C55" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>42</v>
@@ -1579,235 +1600,235 @@
     </row>
     <row r="56">
       <c r="C56" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D57" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>33</v>
+      <c r="E57" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="22" t="s">
+      <c r="C58" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C61" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
-    </row>
-    <row r="59">
-      <c r="C59" s="24" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="35"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="26" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="26" t="s">
+      <c r="C63" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C64" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D64" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E64" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62">
-      <c r="C62" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="32" t="s">
+    <row r="65">
+      <c r="C65" s="32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="C63" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" s="30" t="s">
+      <c r="D65" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="E65" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="66">
       <c r="C66" s="30" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
       <c r="C68" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D71" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="22" t="s">
+      <c r="E71" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C74" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-    </row>
-    <row r="72">
-      <c r="C72" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="26" t="s">
+      <c r="D74" s="34"/>
+      <c r="E74" s="35"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="26" t="s">
+      <c r="C76" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D77" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E77" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75">
-      <c r="C75" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" s="30" t="s">
+    <row r="78">
+      <c r="C78" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D78" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="C77" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="C78" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="C79" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="C80" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E80" s="30" t="s">
         <v>33</v>
@@ -1815,10 +1836,10 @@
     </row>
     <row r="81">
       <c r="C81" s="30" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>33</v>
@@ -1826,427 +1847,427 @@
     </row>
     <row r="82">
       <c r="C82" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D85" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="22" t="s">
+      <c r="E85" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C88" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="34"/>
-      <c r="E85" s="35"/>
-    </row>
-    <row r="86">
-      <c r="C86" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="26" t="s">
+      <c r="D88" s="34"/>
+      <c r="E88" s="35"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="38"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="26" t="s">
+      <c r="C90" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="37"/>
+      <c r="E90" s="38"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C91" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="39" t="s">
+      <c r="D91" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="39" t="s">
+      <c r="E91" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89">
-      <c r="C89" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="32" t="s">
+    <row r="92">
+      <c r="C92" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="32" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="C90" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="C91" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="C92" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="C93" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D96" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E93" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="22" t="s">
+      <c r="E96" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C99" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="35"/>
-    </row>
-    <row r="97">
-      <c r="C97" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="26" t="s">
+      <c r="D99" s="34"/>
+      <c r="E99" s="35"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="38"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="26" t="s">
+      <c r="C101" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="37"/>
+      <c r="E101" s="38"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="39" t="s">
+      <c r="C102" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="39" t="s">
+      <c r="D102" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E99" s="39" t="s">
+      <c r="E102" s="39" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="C100" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="C101" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="C102" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="C103" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D106" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E103" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="22" t="s">
+      <c r="E106" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C109" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="34"/>
-      <c r="E106" s="35"/>
-    </row>
-    <row r="107">
-      <c r="C107" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="26" t="s">
+      <c r="D109" s="34"/>
+      <c r="E109" s="35"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="38"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="26" t="s">
+      <c r="C111" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="37"/>
+      <c r="E111" s="38"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="39" t="s">
+      <c r="C112" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="39" t="s">
+      <c r="D112" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="39" t="s">
+      <c r="E112" s="39" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="C110" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="C111" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="C112" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="C113" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="E113" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E114" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E115" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="22" t="s">
+      <c r="C116" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C119" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="34"/>
-      <c r="E116" s="35"/>
-    </row>
-    <row r="117">
-      <c r="C117" s="24" t="s">
+      <c r="D119" s="34"/>
+      <c r="E119" s="35"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="5"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="26" t="s">
+      <c r="D120" s="6"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D118" s="37"/>
-      <c r="E118" s="38"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="26" t="s">
+      <c r="C121" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D121" s="37"/>
+      <c r="E121" s="38"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="39" t="s">
+      <c r="C122" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="39" t="s">
+      <c r="D122" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="39" t="s">
+      <c r="E122" s="39" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="C120" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E120" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="C121" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="C122" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="123">
       <c r="C123" s="30" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124">
       <c r="C124" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125">
       <c r="C125" s="30" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126">
       <c r="C126" s="30" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127">
       <c r="C127" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128">
       <c r="C128" s="30" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E128" s="30" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129">
       <c r="C129" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E129" s="30" t="s">
         <v>42</v>
@@ -2254,101 +2275,134 @@
     </row>
     <row r="130">
       <c r="C130" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D130" s="30" t="s">
+      <c r="D132" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="E132" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133" s="30" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L14"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="A119:B120"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A109:B110"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I7:L14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A96:B97"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A21:B22"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I7"/>
     <hyperlink r:id="rId2" ref="I15"/>
-    <hyperlink r:id="rId3" ref="C118"/>
+    <hyperlink r:id="rId3" ref="C121"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
